--- a/parser/public/data/_MetaEdiciones.xlsx
+++ b/parser/public/data/_MetaEdiciones.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,8 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/dev/lab/mujeres-de-prensa/parser/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15BACE8F-21E1-8A46-8D38-6A14791AFEF9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1100" windowWidth="27360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="1100" windowWidth="27360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mireya" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Contrastes" sheetId="5" r:id="rId5"/>
     <sheet name="Mujer" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="164">
   <si>
     <t>Volumen</t>
   </si>
@@ -522,15 +523,12 @@
   </si>
   <si>
     <t>No.24/Ago/1955</t>
-  </si>
-  <si>
-    <t>Sandra Beatriz Sánchez López / Universidad de Los Andes © / http://pasadoimpreso.uniandes.edu.co/mujeres-de-prensa/terminos-y-condiciones-de-uso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -568,12 +566,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,1266 +848,1198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>MID(D2, FIND("/", D2) + 1, FIND( "!", SUBSTITUTE(D2, "/", "!", 2) ) - 2 - FIND("/", D2) + 1 )</f>
+        <v>Oct</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C24" si="0">RIGHT(D2, 4)</f>
+        <v>1943</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A24" si="1">SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B24" si="2">MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <v>Dic</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>1943</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="2"/>
+        <v>Ene</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>7 y 8</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abr y May</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="2"/>
+        <v>Jun</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>10 y 11</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="2"/>
+        <v>Jul y Ago</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="2"/>
+        <v>Sep</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="2"/>
+        <v>Nov</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="2"/>
+        <v>Dic</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>1944</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="2"/>
+        <v>Ene</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="2"/>
+        <v>Feb</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="2"/>
+        <v>Abr</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="2"/>
+        <v>May</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>Jun</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="2"/>
+        <v>Jul</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="2"/>
+        <v>Ago</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="2"/>
+        <v>Oct</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>23 y 24</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="2"/>
+        <v>Nov y Dic</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="2"/>
+        <v>Abr</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>1946</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="2"/>
+        <v>Sep</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>1946</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="2"/>
+        <v>Oct</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>1946</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>MID(D2, FIND("/", D2) + 1, FIND( "!", SUBSTITUTE(D2, "/", "!", 2) ) - 2 - FIND("/", D2) + 1 )</f>
+        <v>Oct</v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(D2, 4)</f>
+        <v>1944</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
-        <v>1</v>
+        <f t="shared" ref="A3:A20" si="0">SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <f t="shared" ref="B3:B20" si="1">MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <v>Nov</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C20" si="2">RIGHT(D3, 4)</f>
+        <v>1944</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>Dic</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>1944</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>1945</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>1945</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>Abr</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>1945</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>Jun</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="2"/>
+        <v>1945</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>Jul</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="2"/>
+        <v>1945</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>Ago</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="2"/>
+        <v>1945</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>Sep</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>1945</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
         <v>Oct</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C25" si="0">RIGHT(D3, 4)</f>
-        <v>1943</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A25" si="1">SUBSTITUTE(LEFT(D4,FIND("/",D4) - 1), "No.", "",1)</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" ref="B4:B25" si="2">MID(D4, FIND("/", D4) + 1, FIND( "!", SUBSTITUTE(D4, "/", "!", 2) ) - 2 - FIND("/", D4) + 1 )</f>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>1945</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
         <v>Dic</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>1943</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="2"/>
-        <v>Ene</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
+        <v>1945</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="2"/>
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v>1946</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
         <v>Mar</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f t="shared" si="1"/>
-        <v>7 y 8</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="2"/>
-        <v>Abr y May</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="2"/>
-        <v>Jun</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
-      </c>
-      <c r="D9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f t="shared" si="1"/>
-        <v>10 y 11</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="2"/>
-        <v>Jul y Ago</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="2"/>
-        <v>Sep</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="2"/>
-        <v>Nov</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="2"/>
-        <v>Dic</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>1944</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f t="shared" si="1"/>
+      <c r="C15" t="str">
+        <f t="shared" si="2"/>
+        <v>1946</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="2"/>
-        <v>Ene</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="2"/>
-        <v>Feb</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
       <c r="B16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Abr</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>May</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Jun</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Jul</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="2"/>
-        <v>Ago</v>
+        <f t="shared" si="1"/>
+        <v>Oct</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
+        <f t="shared" si="2"/>
+        <v>1946</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="2"/>
-        <v>Oct</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <f t="shared" si="1"/>
-        <v>23 y 24</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="2"/>
-        <v>Nov y Dic</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>1945</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="2"/>
-        <v>Abr</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>1946</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="2"/>
-        <v>Sep</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>1946</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="str">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="2"/>
-        <v>Oct</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>1946</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
+        <v>3</v>
+      </c>
+      <c r="B2" t="str">
+        <f>MID(D2, FIND("/", D2) + 1, FIND( "!", SUBSTITUTE(D2, "/", "!", 2) ) - 2 - FIND("/", D2) + 1 )</f>
+        <v>Oct y Nov</v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(D2, 4)</f>
+        <v>1953</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
-        <v>1</v>
+        <f t="shared" ref="A3:A24" si="0">SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
+        <v>4</v>
       </c>
       <c r="B3" t="str">
-        <f>MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <f t="shared" ref="B3:B24" si="1">MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <v>Feb y Mar</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C24" si="2">RIGHT(D3, 4)</f>
+        <v>1954</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>Abr</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>May</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>Jun</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>Jul</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>Ago</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>Sept</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
         <v>Oct</v>
       </c>
-      <c r="C3" t="str">
-        <f>RIGHT(D3, 4)</f>
-        <v>1944</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A21" si="0">SUBSTITUTE(LEFT(D4,FIND("/",D4) - 1), "No.", "",1)</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" ref="B4:B21" si="1">MID(D4, FIND("/", D4) + 1, FIND( "!", SUBSTITUTE(D4, "/", "!", 2) ) - 2 - FIND("/", D4) + 1 )</f>
-        <v>Nov</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C21" si="2">RIGHT(D4, 4)</f>
-        <v>1944</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="str">
+      <c r="C10" t="str">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B11" t="str">
         <f t="shared" si="1"/>
         <v>Dic</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="2"/>
-        <v>1944</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>Feb</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>Mar</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="str">
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>Ene y Feb</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B13" t="str">
         <f t="shared" si="1"/>
         <v>Abr</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="str">
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>May</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B15" t="str">
         <f t="shared" si="1"/>
         <v>Jun</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="1"/>
-        <v>Jul</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="str">
+      <c r="C15" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B16" t="str">
         <f t="shared" si="1"/>
         <v>Ago</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="1"/>
-        <v>Sep</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>Oct</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="1"/>
-        <v>Dic</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>Feb</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="2"/>
-        <v>1946</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>Mar</v>
-      </c>
       <c r="C16" t="str">
         <f t="shared" si="2"/>
-        <v>1946</v>
+        <v>1955</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
-        <v>Abr</v>
+        <v>Sep</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="2"/>
-        <v>1946</v>
+        <v>1955</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
-        <v>May</v>
+        <v>Oct</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="2"/>
-        <v>1946</v>
+        <v>1955</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
-        <v>Jun</v>
+        <v>Nov y Dic</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="2"/>
-        <v>1946</v>
+        <v>1955</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
-        <v>Jul</v>
+        <v>Ene y Feb</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="2"/>
-        <v>1946</v>
+        <v>1956</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
-        <v>Oct</v>
+        <v>Abr</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="2"/>
-        <v>1946</v>
+        <v>1956</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f>SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
-        <v>3</v>
-      </c>
-      <c r="B3" t="str">
-        <f>MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
-        <v>Oct y Nov</v>
-      </c>
-      <c r="C3" t="str">
-        <f>RIGHT(D3, 4)</f>
-        <v>1953</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A25" si="0">SUBSTITUTE(LEFT(D4,FIND("/",D4) - 1), "No.", "",1)</f>
-        <v>4</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" ref="B4:B25" si="1">MID(D4, FIND("/", D4) + 1, FIND( "!", SUBSTITUTE(D4, "/", "!", 2) ) - 2 - FIND("/", D4) + 1 )</f>
-        <v>Feb y Mar</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C25" si="2">RIGHT(D4, 4)</f>
-        <v>1954</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>Abr</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="2"/>
-        <v>1954</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>May</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="2"/>
-        <v>1954</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>Jun</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v>1954</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="1"/>
-        <v>Jul</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="2"/>
-        <v>1954</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="1"/>
-        <v>Ago</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="2"/>
-        <v>1954</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="1"/>
-        <v>Sept</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="2"/>
-        <v>1954</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>Oct</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="2"/>
-        <v>1954</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="1"/>
-        <v>Dic</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="2"/>
-        <v>1954</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>Ene y Feb</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="2"/>
-        <v>1955</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="1"/>
-        <v>Abr</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="2"/>
-        <v>1955</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>May</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="2"/>
-        <v>1955</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>Jun</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="2"/>
-        <v>1955</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>Ago</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="2"/>
-        <v>1955</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>Sep</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="2"/>
-        <v>1955</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>Oct</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="2"/>
-        <v>1955</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>Nov y Dic</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="2"/>
-        <v>1955</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>Ene y Feb</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="2"/>
-        <v>1956</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
-        <v>Abr</v>
+        <v>Jul</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v>Jul</v>
+        <v>Ago y Sep</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
-        <v>Ago y Sep</v>
+        <v>Nov y Dic</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="1"/>
-        <v>Nov y Dic</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="2"/>
-        <v>1956</v>
-      </c>
-      <c r="D25" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2120,76 +2047,72 @@
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A25" si="0">SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B25" si="1">MID(D2, FIND("/", D2) + 1, FIND( "!", SUBSTITUTE(D2, "/", "!", 2) ) - 2 - FIND("/", D2) + 1 )</f>
+        <v>Feb</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C25" si="2">RIGHT(D2, 4)</f>
+        <v>1955</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A26" si="0">SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B26" si="1">MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <f t="shared" si="1"/>
         <v>Feb</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C26" si="2">RIGHT(D3, 4)</f>
+        <f t="shared" si="2"/>
         <v>1955</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="1"/>
-        <v>Feb</v>
+        <v>Mar</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="1"/>
@@ -2200,13 +2123,13 @@
         <v>1955</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="1"/>
@@ -2217,13 +2140,13 @@
         <v>1955</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="1"/>
@@ -2234,13 +2157,13 @@
         <v>1955</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
@@ -2251,149 +2174,149 @@
         <v>1955</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>Abr</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
+        <v>Apr</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="2"/>
+        <v>1955</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
         <v>Abr</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>Apr</v>
-      </c>
-      <c r="C11" t="str">
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>May</v>
+      </c>
+      <c r="C12" t="str">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="D11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="1"/>
-        <v>Abr</v>
-      </c>
-      <c r="C12" t="str">
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>May</v>
+      </c>
+      <c r="C13" t="str">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="D12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="str">
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="D13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="str">
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
         <f t="shared" si="1"/>
         <v>May</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="D14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>May</v>
-      </c>
-      <c r="C15" t="str">
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>Jun</v>
+      </c>
+      <c r="C16" t="str">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="D15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>May</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="2"/>
-        <v>1955</v>
-      </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
@@ -2404,13 +2327,13 @@
         <v>1955</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
@@ -2421,13 +2344,13 @@
         <v>1955</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
@@ -2438,13 +2361,13 @@
         <v>1955</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
@@ -2455,30 +2378,30 @@
         <v>1955</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
-        <v>Jun</v>
+        <v>Jul</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
@@ -2489,13 +2412,13 @@
         <v>1955</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
@@ -2506,30 +2429,30 @@
         <v>1955</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
-        <v>Jul</v>
+        <v>Ago</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
@@ -2540,175 +2463,134 @@
         <v>1955</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="1"/>
-        <v>Ago</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="2"/>
-        <v>1955</v>
-      </c>
-      <c r="D26" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>MID(D2, FIND("/", D2) + 1, FIND( "!", SUBSTITUTE(D2, "/", "!", 2) ) - 2 - FIND("/", D2) + 1 )</f>
+        <v>Ago</v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(D2, 4)</f>
+        <v>1960</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
         <f>MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
-        <v>Ago</v>
+        <v>Sep</v>
       </c>
       <c r="C3" t="str">
         <f>RIGHT(D3, 4)</f>
         <v>1960</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>SUBSTITUTE(LEFT(D4,FIND("/",D4) - 1), "No.", "",1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
         <f>MID(D4, FIND("/", D4) + 1, FIND( "!", SUBSTITUTE(D4, "/", "!", 2) ) - 2 - FIND("/", D4) + 1 )</f>
-        <v>Sep</v>
+        <v>Nov</v>
       </c>
       <c r="C4" t="str">
         <f>RIGHT(D4, 4)</f>
         <v>1960</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>SUBSTITUTE(LEFT(D5,FIND("/",D5) - 1), "No.", "",1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
         <f>MID(D5, FIND("/", D5) + 1, FIND( "!", SUBSTITUTE(D5, "/", "!", 2) ) - 2 - FIND("/", D5) + 1 )</f>
-        <v>Nov</v>
+        <v>Dic</v>
       </c>
       <c r="C5" t="str">
         <f>RIGHT(D5, 4)</f>
         <v>1960</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>SUBSTITUTE(LEFT(D6,FIND("/",D6) - 1), "No.", "",1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="str">
         <f>MID(D6, FIND("/", D6) + 1, FIND( "!", SUBSTITUTE(D6, "/", "!", 2) ) - 2 - FIND("/", D6) + 1 )</f>
-        <v>Dic</v>
+        <v>Ene</v>
       </c>
       <c r="C6" t="str">
         <f>RIGHT(D6, 4)</f>
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f>SUBSTITUTE(LEFT(D7,FIND("/",D7) - 1), "No.", "",1)</f>
-        <v>5</v>
-      </c>
-      <c r="B7" t="str">
-        <f>MID(D7, FIND("/", D7) + 1, FIND( "!", SUBSTITUTE(D7, "/", "!", 2) ) - 2 - FIND("/", D7) + 1 )</f>
-        <v>Ene</v>
-      </c>
-      <c r="C7" t="str">
-        <f>RIGHT(D7, 4)</f>
-        <v>1961</v>
-      </c>
-      <c r="D7" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2716,1198 +2598,1175 @@
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>SUBSTITUTE(LEFT(D2,FIND("/",D2) - 1), "No.", "",1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>MID(D2, FIND("/", D2) + 1, FIND( "!", SUBSTITUTE(D2, "/", "!", 2) ) - 2 - FIND("/", D2) + 1 )</f>
+        <v>Dic</v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(D2, 4)</f>
+        <v>1961</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
-        <v>1</v>
+        <f t="shared" ref="A3:A66" si="0">SUBSTITUTE(LEFT(D3,FIND("/",D3) - 1), "No.", "",1)</f>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <f t="shared" ref="B3:B66" si="1">MID(D3, FIND("/", D3) + 1, FIND( "!", SUBSTITUTE(D3, "/", "!", 2) ) - 2 - FIND("/", D3) + 1 )</f>
+        <v>Ene</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="2">RIGHT(D3, 4)</f>
+        <v>1962</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>Mar</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>Abr y May</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>May y Jun</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>Jun y Jul</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>Jul y Ago</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>Ago y Sep</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>Sep y Oct</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>Oct y Nov</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
         <v>Dic</v>
       </c>
-      <c r="C3" t="str">
-        <f>RIGHT(D3, 4)</f>
-        <v>1961</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A67" si="0">SUBSTITUTE(LEFT(D4,FIND("/",D4) - 1), "No.", "",1)</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" ref="B4:B67" si="1">MID(D4, FIND("/", D4) + 1, FIND( "!", SUBSTITUTE(D4, "/", "!", 2) ) - 2 - FIND("/", D4) + 1 )</f>
-        <v>Ene</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C67" si="2">RIGHT(D4, 4)</f>
+      <c r="C13" t="str">
+        <f t="shared" si="2"/>
         <v>1962</v>
       </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="1"/>
-        <v>Feb</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="1"/>
-        <v>Mar</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abr y May</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="D7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="1"/>
-        <v>May y Jun</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="str">
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>Feb y Mar</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v>1963</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B15" t="str">
         <f t="shared" si="1"/>
         <v>Jun y Jul</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="str">
+      <c r="C15" t="str">
+        <f t="shared" si="2"/>
+        <v>1963</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B16" t="str">
         <f t="shared" si="1"/>
         <v>Jul y Ago</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>Ago y Sep</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="1"/>
-        <v>Sep y Oct</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>Oct y Nov</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="1"/>
-        <v>Dic</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="2"/>
-        <v>1962</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>Feb y Mar</v>
-      </c>
-      <c r="C15" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="2"/>
         <v>1963</v>
       </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>Jun y Jul</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="2"/>
-        <v>1963</v>
-      </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
-        <v>Jul y Ago</v>
+        <v>Sep y Oct</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="2"/>
         <v>1963</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
-        <v>Sep y Oct</v>
+        <v>Oct y Nov</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="2"/>
         <v>1963</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
-        <v>Oct y Nov</v>
+        <v>Nov y Dic</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="2"/>
         <v>1963</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
-        <v>Nov y Dic</v>
+        <v>Dic</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="2"/>
         <v>1963</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="1"/>
-        <v>Dic</v>
+        <v>Jun</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="2"/>
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="1"/>
-        <v>Jun</v>
+        <v>Jul</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="2"/>
         <v>1964</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v>Jul</v>
+        <v>Ago</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="2"/>
         <v>1964</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="1"/>
-        <v>Ago</v>
+        <v>Jul</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="2"/>
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="1"/>
-        <v>Jul</v>
+        <v>Ago</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="2"/>
         <v>1965</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="1"/>
-        <v>Ago</v>
+        <v>Sep</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="2"/>
         <v>1965</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="1"/>
-        <v>Sep</v>
+        <v>Oct</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="2"/>
         <v>1965</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="1"/>
-        <v>Oct</v>
+        <v>Nov</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="2"/>
         <v>1965</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="1"/>
-        <v>Nov</v>
+        <v>Jun y Jul</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="2"/>
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="1"/>
-        <v>Jun y Jul</v>
+        <v>Ago</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="2"/>
         <v>1966</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="1"/>
-        <v>Ago</v>
+        <v>Sep</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="2"/>
         <v>1966</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="1"/>
-        <v>Sep</v>
+        <v>Ene y Feb</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="2"/>
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="1"/>
-        <v>Ene y Feb</v>
+        <v>Mar</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="2"/>
         <v>1967</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>May</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="2"/>
         <v>1967</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
-        <v>May</v>
+        <v>Jun</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="2"/>
         <v>1967</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>Jun</v>
+        <v>Ago</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="2"/>
         <v>1967</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>Ago</v>
+        <v>Sep</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="2"/>
         <v>1967</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>Sep</v>
+        <v>Oct</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="2"/>
         <v>1967</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>Oct</v>
+        <v>Nov</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="2"/>
         <v>1967</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>Nov</v>
+        <v>Ene y Feb</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="2"/>
-        <v>1967</v>
+        <f>RIGHT(D40, 4)</f>
+        <v>1968</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>Ene y Feb</v>
+        <v>Mar</v>
       </c>
       <c r="C41" t="str">
-        <f>RIGHT(D41, 4)</f>
+        <f t="shared" si="2"/>
         <v>1968</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>Abr</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="2"/>
         <v>1968</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>Abr</v>
+        <v>Jul</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="2"/>
         <v>1968</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>Jul</v>
+        <v>Oct</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="2"/>
         <v>1968</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>Oct</v>
+        <v>Abr</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="2"/>
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>Abr</v>
+        <v>May</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="2"/>
         <v>1969</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>May</v>
+        <v>Jun</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="2"/>
         <v>1969</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>Jun</v>
+        <v>Nov</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="2"/>
         <v>1969</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>Nov</v>
+        <v>Ene y Feb</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="2"/>
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>Ene y Feb</v>
+        <v>Mar</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>Abr</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>Abr</v>
+        <v>May</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>May</v>
+        <v>Jun</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>Jun</v>
+        <v>Jul</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>Jul</v>
+        <v>Ago</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>Ago</v>
+        <v>Sep</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>Sep</v>
+        <v>Oct</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>Oct</v>
+        <v>Nov</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>Nov</v>
+        <v>Mar</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>Mar</v>
+        <v>Abr</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
         <v>1971</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>Abr</v>
+        <v>Jun</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
         <v>1971</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>Jun</v>
+        <v>Ago</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
         <v>1971</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>Ago</v>
+        <v>Sep</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
         <v>1971</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>Sep</v>
+        <v>Oct</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
         <v>1971</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>Oct</v>
+        <v>Dic</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
         <v>1971</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>Dic</v>
+        <v>Mar</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="2"/>
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="D66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" si="0"/>
-        <v>112</v>
+        <f t="shared" ref="A67:A69" si="3">SUBSTITUTE(LEFT(D67,FIND("/",D67) - 1), "No.", "",1)</f>
+        <v>114</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="1"/>
-        <v>Mar</v>
+        <f t="shared" ref="B67:B69" si="4">MID(D67, FIND("/", D67) + 1, FIND( "!", SUBSTITUTE(D67, "/", "!", 2) ) - 2 - FIND("/", D67) + 1 )</f>
+        <v>May</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C67:C69" si="5">RIGHT(D67, 4)</f>
         <v>1972</v>
       </c>
       <c r="D67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A70" si="3">SUBSTITUTE(LEFT(D68,FIND("/",D68) - 1), "No.", "",1)</f>
-        <v>114</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" ref="B68:B70" si="4">MID(D68, FIND("/", D68) + 1, FIND( "!", SUBSTITUTE(D68, "/", "!", 2) ) - 2 - FIND("/", D68) + 1 )</f>
-        <v>May</v>
+        <f t="shared" si="4"/>
+        <v>Ago</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C70" si="5">RIGHT(D68, 4)</f>
+        <f t="shared" si="5"/>
         <v>1972</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="4"/>
-        <v>Ago</v>
+        <v>Oct</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="5"/>
         <v>1972</v>
       </c>
       <c r="D69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="str">
-        <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="B70" t="str">
-        <f t="shared" si="4"/>
-        <v>Oct</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="5"/>
-        <v>1972</v>
-      </c>
-      <c r="D70" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>